--- a/Python_Task.xlsx
+++ b/Python_Task.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zafer\Documents\Training\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA46097-4618-4C85-BED7-C747B03A0FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6AFD123-FF82-427C-9912-3D76FDF1B0D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{1DD281B4-8793-4AFA-B19E-F37554072999}"/>
   </bookViews>
@@ -527,7 +527,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -839,6 +839,9 @@
       <c r="D26" s="3">
         <v>45112</v>
       </c>
+      <c r="E26" s="4">
+        <v>45117</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
@@ -853,6 +856,9 @@
       <c r="D27" s="3">
         <v>45113</v>
       </c>
+      <c r="E27" s="4">
+        <v>45117</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
@@ -866,6 +872,9 @@
       </c>
       <c r="D28" s="3">
         <v>45113</v>
+      </c>
+      <c r="E28" s="4">
+        <v>45117</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
